--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_46.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_46.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996506119343201</v>
+        <v>0.9476831946483123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8242055875306739</v>
+        <v>0.7210070603654224</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8143675338349697</v>
+        <v>0.7785053962644628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994269231670219</v>
+        <v>0.9514825992603801</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001454337150947315</v>
+        <v>0.167951970015147</v>
       </c>
       <c r="G2" t="n">
-        <v>1.175538045641223</v>
+        <v>1.865627071980784</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6639965678834879</v>
+        <v>0.7922733545669797</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004292650794125539</v>
+        <v>0.05914754393540592</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09960165517208415</v>
+        <v>0.9567492353128906</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03813577258883468</v>
+        <v>0.4098194358679771</v>
       </c>
       <c r="L2" t="n">
-        <v>1.022360836203511</v>
+        <v>0.928760094840255</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03873637288532215</v>
+        <v>0.4162736823137591</v>
       </c>
       <c r="N2" t="n">
-        <v>143.0664100970396</v>
+        <v>37.56815446644197</v>
       </c>
       <c r="O2" t="n">
-        <v>284.401582640256</v>
+        <v>74.5327380546678</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996903308516196</v>
+        <v>0.947661122834985</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8238116466621651</v>
+        <v>0.7209884746312526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8135261022647449</v>
+        <v>0.7785454532554634</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996010127914968</v>
+        <v>0.9515847901820803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001289006097318763</v>
+        <v>0.1680228268747204</v>
       </c>
       <c r="G3" t="n">
-        <v>1.178172330042872</v>
+        <v>1.865751354870757</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6670063198211768</v>
+        <v>0.7921300730328082</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002988626757998183</v>
+        <v>0.05902296302342548</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1033512893480839</v>
+        <v>0.9532824449194992</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03590273105654726</v>
+        <v>0.4099058756284427</v>
       </c>
       <c r="L3" t="n">
-        <v>1.019818825496344</v>
+        <v>0.928730039605086</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03646816318112379</v>
+        <v>0.416361483414044</v>
       </c>
       <c r="N3" t="n">
-        <v>143.3077676495314</v>
+        <v>37.56731086910932</v>
       </c>
       <c r="O3" t="n">
-        <v>284.6429401927478</v>
+        <v>74.53189445733514</v>
       </c>
     </row>
     <row r="4">
@@ -610,144 +610,144 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999691537349402</v>
+        <v>0.9476385145345029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8237642525869288</v>
+        <v>0.7209692265135161</v>
       </c>
       <c r="D4" t="n">
-        <v>0.81344056553872</v>
+        <v>0.7785854376208021</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996137703347442</v>
+        <v>0.9516863531380061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001283984018090116</v>
+        <v>0.1680954060121341</v>
       </c>
       <c r="G4" t="n">
-        <v>1.178489254442207</v>
+        <v>1.86588006712269</v>
       </c>
       <c r="H4" t="n">
-        <v>0.667312279730463</v>
+        <v>0.7919870512764184</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002893065962305841</v>
+        <v>0.05889914766427076</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1038064755733371</v>
+        <v>0.9497731204029647</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03583272272783797</v>
+        <v>0.4099943975374957</v>
       </c>
       <c r="L4" t="n">
-        <v>1.019741609638274</v>
+        <v>0.9286992538342167</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03639705229121999</v>
+        <v>0.4164513994546751</v>
       </c>
       <c r="N4" t="n">
-        <v>143.3155750415243</v>
+        <v>37.56644713567935</v>
       </c>
       <c r="O4" t="n">
-        <v>284.6507475847407</v>
+        <v>74.53103072390518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_5</t>
+          <t>model_1_46_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996950426879674</v>
+        <v>0.9476153567745266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8237099110548027</v>
+        <v>0.7209492559306019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8133243988191812</v>
+        <v>0.7786250936667847</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999643906214396</v>
+        <v>0.9517872235436107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001269392952730119</v>
+        <v>0.168169749072323</v>
       </c>
       <c r="G5" t="n">
-        <v>1.178852636517754</v>
+        <v>1.866013610502594</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6677278013505199</v>
+        <v>0.7918452038993284</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002667332168379897</v>
+        <v>0.05877617659293704</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1054659059402797</v>
+        <v>0.9462159547784896</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03562854126581833</v>
+        <v>0.4100850510227397</v>
       </c>
       <c r="L5" t="n">
-        <v>1.019517267970087</v>
+        <v>0.9286677198631851</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03618965517528011</v>
+        <v>0.4165434806416914</v>
       </c>
       <c r="N5" t="n">
-        <v>143.3384329655231</v>
+        <v>37.5655627971117</v>
       </c>
       <c r="O5" t="n">
-        <v>284.6736055087395</v>
+        <v>74.53014638533752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_6</t>
+          <t>model_1_46_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996952014033242</v>
+        <v>0.9475916448096294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8237094946731884</v>
+        <v>0.720928548371937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8133648229254788</v>
+        <v>0.7786644714987332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996345069534549</v>
+        <v>0.9518873200578865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001268732295820162</v>
+        <v>0.1682458712894699</v>
       </c>
       <c r="G6" t="n">
-        <v>1.178855420863526</v>
+        <v>1.866152082042735</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6675832066662177</v>
+        <v>0.7917043516777064</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002737737640423746</v>
+        <v>0.05865414897221426</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1046591181095825</v>
+        <v>0.9426184473878728</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03561926860310529</v>
+        <v>0.4101778532410909</v>
       </c>
       <c r="L6" t="n">
-        <v>1.019507110187249</v>
+        <v>0.9286354312301337</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03618023647739861</v>
+        <v>0.4166377444022135</v>
       </c>
       <c r="N6" t="n">
-        <v>143.3394741386098</v>
+        <v>37.56465769979945</v>
       </c>
       <c r="O6" t="n">
-        <v>284.6746466818262</v>
+        <v>74.52924128802528</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996832686866463</v>
+        <v>0.947567374199711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8236292793806896</v>
+        <v>0.7209071322968712</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8132244749733835</v>
+        <v>0.7787036024394967</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996948236919042</v>
+        <v>0.9519868347666638</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001318402547558065</v>
+        <v>0.1683237869175717</v>
       </c>
       <c r="G7" t="n">
-        <v>1.179391820893823</v>
+        <v>1.866295291435312</v>
       </c>
       <c r="H7" t="n">
-        <v>0.668085223153021</v>
+        <v>0.7915643825715378</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002285933134808453</v>
+        <v>0.05853283063034322</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1102600034489222</v>
+        <v>0.9389756905873309</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03630981337817733</v>
+        <v>0.4102728201058068</v>
       </c>
       <c r="L7" t="n">
-        <v>1.02027080405464</v>
+        <v>0.9286023818889683</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03688165664238651</v>
+        <v>0.4167342069001166</v>
       </c>
       <c r="N7" t="n">
-        <v>143.262668933001</v>
+        <v>37.5637317027276</v>
       </c>
       <c r="O7" t="n">
-        <v>284.5978414762174</v>
+        <v>74.52831529095342</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996465217899323</v>
+        <v>0.9475425154118654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8233245170472969</v>
+        <v>0.7208849538046382</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8122616839706539</v>
+        <v>0.7787424412128769</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997425984355705</v>
+        <v>0.9520853961931457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00147136248615527</v>
+        <v>0.1684035907657388</v>
       </c>
       <c r="G8" t="n">
-        <v>1.181429768020522</v>
+        <v>1.866443599114996</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6715290707439547</v>
+        <v>0.7914254585311582</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001928074852050199</v>
+        <v>0.05841267443453904</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1204397353188261</v>
+        <v>0.9352838218153523</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03835834311014059</v>
+        <v>0.4103700656306924</v>
       </c>
       <c r="L8" t="n">
-        <v>1.022622605444333</v>
+        <v>0.9285685316246678</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03896244866984973</v>
+        <v>0.4168329839448093</v>
       </c>
       <c r="N8" t="n">
-        <v>143.0431328922642</v>
+        <v>37.56278370912862</v>
       </c>
       <c r="O8" t="n">
-        <v>284.3783054354806</v>
+        <v>74.52736729735444</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994883249660104</v>
+        <v>0.9475170592683954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8217858591048148</v>
+        <v>0.7208619850439379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8100233546062137</v>
+        <v>0.7787808278093017</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998210818439908</v>
+        <v>0.9521832720289636</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002129860989084814</v>
+        <v>0.1684853122970144</v>
       </c>
       <c r="G9" t="n">
-        <v>1.191718780766768</v>
+        <v>1.866597191323561</v>
       </c>
       <c r="H9" t="n">
-        <v>0.679535445094764</v>
+        <v>0.7912881519015296</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001340192309790829</v>
+        <v>0.05829335404204074</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1431939296305768</v>
+        <v>0.9315484641212111</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04615041699795153</v>
+        <v>0.4104696240856494</v>
       </c>
       <c r="L9" t="n">
-        <v>1.032747202175337</v>
+        <v>0.9285338679399426</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04687723993217748</v>
+        <v>0.41693411034591</v>
       </c>
       <c r="N9" t="n">
-        <v>142.303397129462</v>
+        <v>37.56181340073157</v>
       </c>
       <c r="O9" t="n">
-        <v>283.6385696726784</v>
+        <v>74.5263969889574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_0</t>
+          <t>model_1_46_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994612253722307</v>
+        <v>0.9474910054797346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8217470588363139</v>
+        <v>0.7208382305205869</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8097417986790603</v>
+        <v>0.7788189213383294</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998061715453639</v>
+        <v>0.9522803052401672</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002242663771665696</v>
+        <v>0.168568952440989</v>
       </c>
       <c r="G10" t="n">
-        <v>1.191978238340892</v>
+        <v>1.866756037930589</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6805425543206411</v>
+        <v>0.7911518935569868</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001451878390187331</v>
+        <v>0.05817506089287429</v>
       </c>
       <c r="J10" t="n">
-        <v>0.142490215916948</v>
+        <v>0.9277637634148825</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04735677112795694</v>
+        <v>0.4105714949201771</v>
       </c>
       <c r="L10" t="n">
-        <v>1.034481576177235</v>
+        <v>0.9284983904404898</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04810259293381876</v>
+        <v>0.417037585544248</v>
       </c>
       <c r="N10" t="n">
-        <v>142.2001818717096</v>
+        <v>37.56082079919002</v>
       </c>
       <c r="O10" t="n">
-        <v>283.5353544149261</v>
+        <v>74.52540438741585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_1</t>
+          <t>model_1_46_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994747126092436</v>
+        <v>0.9474642879534909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8216730458630325</v>
+        <v>0.7208136794367483</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8098403107009383</v>
+        <v>0.778856617770687</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998106711789765</v>
+        <v>0.9523763051898113</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002186522787533327</v>
+        <v>0.168654723373224</v>
       </c>
       <c r="G11" t="n">
-        <v>1.192473163434023</v>
+        <v>1.866920211141265</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6801901825304384</v>
+        <v>0.7910170556042085</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001418173737182662</v>
+        <v>0.05805802739246387</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1446066234400101</v>
+        <v>0.92393034391577</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04676026932699732</v>
+        <v>0.4106759347383579</v>
       </c>
       <c r="L11" t="n">
-        <v>1.03361839300841</v>
+        <v>0.9284620091281578</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04749669682577707</v>
+        <v>0.4171436701851637</v>
       </c>
       <c r="N11" t="n">
-        <v>142.2508855304864</v>
+        <v>37.55980342182021</v>
       </c>
       <c r="O11" t="n">
-        <v>283.5860580737028</v>
+        <v>74.52438701004603</v>
       </c>
     </row>
   </sheetData>
